--- a/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-7.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-7.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10443" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50331" uniqueCount="870">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-7.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-7.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50331" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71666" uniqueCount="870">
   <si>
     <t>ANSPs</t>
   </si>
@@ -30739,7 +30739,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>90</v>
@@ -30790,7 +30790,7 @@
         <v>90</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>90</v>
@@ -30802,7 +30802,7 @@
         <v>90</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>90</v>
@@ -30829,7 +30829,7 @@
         <v>90</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="AG2" s="5" t="s">
         <v>90</v>
@@ -30977,7 +30977,7 @@
         <v>90</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>90</v>
@@ -32149,10 +32149,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>90</v>
@@ -32167,7 +32167,7 @@
         <v>90</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>90</v>
@@ -32191,7 +32191,7 @@
         <v>90</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="W14" s="5" t="s">
         <v>90</v>
@@ -32233,10 +32233,10 @@
         <v>90</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="AL14" s="5" t="s">
         <v>90</v>
@@ -33410,79 +33410,79 @@
         <v>90</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="W25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="AB25" s="5" t="s">
         <v>90</v>
@@ -33491,19 +33491,19 @@
         <v>90</v>
       </c>
       <c r="AD25" s="5" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="AF25" s="5" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="AG25" s="5" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="AI25" s="5" t="s">
         <v>90</v>
@@ -33512,10 +33512,10 @@
         <v>90</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
     </row>
     <row r="26">
@@ -33541,7 +33541,7 @@
         <v>90</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>90</v>
@@ -33583,7 +33583,7 @@
         <v>90</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="W26" s="5" t="s">
         <v>90</v>
@@ -33595,10 +33595,10 @@
         <v>90</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="AB26" s="5" t="s">
         <v>90</v>
@@ -33613,7 +33613,7 @@
         <v>90</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="AG26" s="5" t="s">
         <v>90</v>
@@ -33625,7 +33625,7 @@
         <v>90</v>
       </c>
       <c r="AJ26" s="5" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="AK26" s="5" t="s">
         <v>90</v>
@@ -33758,70 +33758,70 @@
         <v>90</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>90</v>
@@ -33833,31 +33833,31 @@
         <v>90</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="AF28" s="5" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="AK28" s="5" t="s">
         <v>90</v>
@@ -35031,115 +35031,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
     </row>
     <row r="40">
@@ -35147,115 +35147,115 @@
         <v>85</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
@@ -35263,115 +35263,115 @@
         <v>86</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>98</v>
+        <v>256</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>98</v>
+        <v>284</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>98</v>
+        <v>298</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>98</v>
+        <v>311</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>98</v>
+        <v>326</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>98</v>
+        <v>361</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>98</v>
+        <v>389</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>98</v>
+        <v>413</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>98</v>
+        <v>442</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>98</v>
+        <v>476</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>98</v>
+        <v>493</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>98</v>
+        <v>521</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>98</v>
+        <v>538</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>98</v>
+        <v>559</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>98</v>
+        <v>585</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>98</v>
+        <v>616</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>98</v>
+        <v>636</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>98</v>
+        <v>660</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>98</v>
+        <v>675</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>98</v>
+        <v>703</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>98</v>
+        <v>735</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>98</v>
+        <v>759</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>98</v>
+        <v>786</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>98</v>
+        <v>815</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>98</v>
+        <v>845</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>98</v>
+        <v>859</v>
       </c>
     </row>
     <row r="42">
